--- a/VHDL Components/Control Unit/Control Signals.xlsx
+++ b/VHDL Components/Control Unit/Control Signals.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Projects\Microprocessors\Mips-Microprocessor\VHDL Components\Control Unit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE5B962-C840-4741-AC71-82B4FD142914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="56">
   <si>
     <t>Instructions</t>
   </si>
@@ -184,24 +193,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="36.0"/>
+      <sz val="36"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,7 +224,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -219,7 +234,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -233,54 +254,52 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -470,43 +489,48 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="2.86"/>
-    <col customWidth="1" min="3" max="3" width="3.43"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="11.0"/>
-    <col customWidth="1" min="6" max="6" width="4.29"/>
-    <col customWidth="1" min="7" max="7" width="6.29"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="11.86"/>
-    <col customWidth="1" min="10" max="10" width="4.57"/>
-    <col customWidth="1" min="11" max="11" width="6.71"/>
-    <col customWidth="1" min="12" max="13" width="7.14"/>
-    <col customWidth="1" min="14" max="14" width="7.43"/>
-    <col customWidth="1" min="15" max="15" width="7.29"/>
-    <col customWidth="1" min="16" max="17" width="7.14"/>
-    <col customWidth="1" min="18" max="21" width="6.29"/>
-    <col customWidth="1" min="22" max="22" width="6.14"/>
-    <col customWidth="1" min="23" max="23" width="6.43"/>
-    <col customWidth="1" min="24" max="24" width="6.29"/>
-    <col customWidth="1" min="25" max="25" width="6.57"/>
-    <col customWidth="1" min="26" max="26" width="7.43"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -584,7 +608,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L3" s="6" t="s">
         <v>18</v>
       </c>
@@ -631,7 +655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L4" s="2"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -646,802 +670,802 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>34</v>
@@ -1453,34 +1477,34 @@
         <v>34</v>
       </c>
       <c r="L16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>1</v>
       </c>
       <c r="V16" s="6" t="s">
         <v>34</v>
@@ -1492,27 +1516,27 @@
         <v>34</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>34</v>
@@ -1530,19 +1554,19 @@
         <v>34</v>
       </c>
       <c r="N17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>34</v>
@@ -1550,8 +1574,8 @@
       <c r="T17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="6" t="s">
-        <v>34</v>
+      <c r="U17" s="6">
+        <v>1</v>
       </c>
       <c r="V17" s="6" t="s">
         <v>34</v>
@@ -1563,27 +1587,27 @@
         <v>34</v>
       </c>
       <c r="Y17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>34</v>
@@ -1601,19 +1625,19 @@
         <v>34</v>
       </c>
       <c r="N18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>34</v>
@@ -1634,27 +1658,27 @@
         <v>34</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>34</v>
@@ -1669,22 +1693,22 @@
         <v>34</v>
       </c>
       <c r="M19" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>34</v>
@@ -1705,27 +1729,27 @@
         <v>34</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>34</v>
@@ -1743,19 +1767,19 @@
         <v>34</v>
       </c>
       <c r="N20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>34</v>
@@ -1776,36 +1800,36 @@
         <v>34</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>34</v>
@@ -1814,19 +1838,19 @@
         <v>34</v>
       </c>
       <c r="N21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>34</v>
@@ -1835,48 +1859,48 @@
         <v>34</v>
       </c>
       <c r="U21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>34</v>
@@ -1885,19 +1909,19 @@
         <v>34</v>
       </c>
       <c r="N22" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>34</v>
@@ -1906,39 +1930,39 @@
         <v>34</v>
       </c>
       <c r="U22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>34</v>
@@ -1950,31 +1974,31 @@
         <v>34</v>
       </c>
       <c r="L23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="6" t="s">
         <v>34</v>
@@ -1989,27 +2013,27 @@
         <v>34</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>34</v>
@@ -2027,19 +2051,19 @@
         <v>34</v>
       </c>
       <c r="N24" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>34</v>
@@ -2060,27 +2084,27 @@
         <v>34</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>34</v>
@@ -2098,19 +2122,19 @@
         <v>34</v>
       </c>
       <c r="N25" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>34</v>
@@ -2131,27 +2155,27 @@
         <v>34</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>34</v>
@@ -2169,7 +2193,7 @@
         <v>34</v>
       </c>
       <c r="N26" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>34</v>
@@ -2181,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>34</v>
@@ -2202,19 +2226,18 @@
         <v>34</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L31" s="9"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="14" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="14" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>